--- a/game flow/Serie_A_GameFlow.xlsx
+++ b/game flow/Serie_A_GameFlow.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.804455445544554</v>
+        <v>4.863473053892216</v>
       </c>
       <c r="C2" t="n">
-        <v>10.37654320987654</v>
+        <v>10.53238866396761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6720828917932415</v>
+        <v>0.6773069574013713</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06617052256916356</v>
+        <v>0.06507911883338505</v>
       </c>
       <c r="G2" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0493039894237499</v>
+        <v>0.04930015552099534</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.078979343863913</v>
+        <v>5.084588644264195</v>
       </c>
       <c r="C5" t="n">
-        <v>8.549194991055456</v>
+        <v>8.541455160744501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6459641255605382</v>
+        <v>0.6494579800364925</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06539127566586955</v>
+        <v>0.06443521204044839</v>
       </c>
       <c r="G5" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.122651933701658</v>
+        <v>4.26031746031746</v>
       </c>
       <c r="C6" t="n">
-        <v>6.807044410413476</v>
+        <v>6.772727272727272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6645890144137125</v>
+        <v>0.6682835820895522</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07814140707035351</v>
+        <v>0.07818654152350624</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.996231155778895</v>
+        <v>5.036496350364963</v>
       </c>
       <c r="C8" t="n">
-        <v>8.103019538188278</v>
+        <v>8.182130584192439</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5603015075376885</v>
+        <v>0.5618959963184538</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07180144701895778</v>
+        <v>0.07206733298264072</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.390835579514825</v>
+        <v>7.394601542416453</v>
       </c>
       <c r="C9" t="n">
-        <v>10.35098039215686</v>
+        <v>10.16111111111111</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5417478249577977</v>
+        <v>0.5285255618671277</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06363718656648865</v>
+        <v>0.06383350821965722</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.202981651376147</v>
+        <v>5.069868995633188</v>
       </c>
       <c r="C10" t="n">
-        <v>6.630797773654916</v>
+        <v>6.625668449197861</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4525334886429819</v>
+        <v>0.449452401010952</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09896709104011531</v>
+        <v>0.100865551067513</v>
       </c>
       <c r="G10" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.633532934131736</v>
+        <v>4.706155632984902</v>
       </c>
       <c r="C11" t="n">
-        <v>8.653923541247485</v>
+        <v>8.592592592592593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6157349246231156</v>
+        <v>0.6158772713732499</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1062142355185222</v>
+        <v>0.1069255288322225</v>
       </c>
       <c r="G11" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="12">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.787688442211055</v>
+        <v>5.885185185185185</v>
       </c>
       <c r="C12" t="n">
-        <v>7.803059273422562</v>
+        <v>7.888888888888889</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4203694458312531</v>
+        <v>0.4104087452471483</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08130707448564198</v>
+        <v>0.08141141460303965</v>
       </c>
       <c r="G12" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="13">
@@ -752,22 +752,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.777535441657579</v>
+        <v>4.744791666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>9.243298969072164</v>
+        <v>9.424063116370808</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3646087191984836</v>
+        <v>0.3594822006472492</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08442437923250565</v>
+        <v>0.083663631494376</v>
       </c>
       <c r="G13" t="n">
-        <v>-20</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="14">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.395750332005312</v>
+        <v>5.325670498084291</v>
       </c>
       <c r="C15" t="n">
-        <v>7.045454545454546</v>
+        <v>7.180076628352491</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3569688421592512</v>
+        <v>0.3580110497237569</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0912481352560915</v>
+        <v>0.09121140142517815</v>
       </c>
       <c r="G15" t="n">
-        <v>-18</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="16">
@@ -852,72 +852,72 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.236679058240396</v>
+        <v>5.287933094384707</v>
       </c>
       <c r="C17" t="n">
-        <v>8.917391304347825</v>
+        <v>8.978947368421053</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3694581280788177</v>
+        <v>0.3707144726511384</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09738472126634549</v>
+        <v>0.09751811992093125</v>
       </c>
       <c r="G17" t="n">
-        <v>-24</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.855163727959698</v>
+        <v>5.547085201793722</v>
       </c>
       <c r="C18" t="n">
-        <v>9.362204724409448</v>
+        <v>4.892682926829268</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5201980714099557</v>
+        <v>0.4462581269885185</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07701971395438732</v>
+        <v>0.1044103313840156</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.580720092915215</v>
+        <v>4.855163727959698</v>
       </c>
       <c r="C19" t="n">
-        <v>4.902027027027027</v>
+        <v>9.362204724409448</v>
       </c>
       <c r="D19" t="n">
-        <v>0.439426523297491</v>
+        <v>0.5201980714099557</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1040735538245435</v>
+        <v>0.07701971395438732</v>
       </c>
       <c r="G19" t="n">
-        <v>-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">

--- a/game flow/Serie_A_GameFlow.xlsx
+++ b/game flow/Serie_A_GameFlow.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.863473053892216</v>
+        <v>4.83963344788087</v>
       </c>
       <c r="C2" t="n">
-        <v>10.53238866396761</v>
+        <v>10.4294003868472</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6773069574013713</v>
+        <v>0.6772138458271395</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06507911883338505</v>
+        <v>0.06426506559928842</v>
       </c>
       <c r="G2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.240287769784173</v>
+        <v>6.203601108033241</v>
       </c>
       <c r="C3" t="n">
-        <v>9.877016129032258</v>
+        <v>10.02307692307692</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4991456642460487</v>
+        <v>0.5080711074785451</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06331420242324862</v>
+        <v>0.06399039286326985</v>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -527,397 +527,397 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.447263017356475</v>
+        <v>5.401785714285714</v>
       </c>
       <c r="C4" t="n">
-        <v>9.542148760330578</v>
+        <v>9.677777777777777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5879163439194423</v>
+        <v>0.5866894562546736</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04930015552099534</v>
+        <v>0.04884758364312267</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.084588644264195</v>
+        <v>4.420731707317073</v>
       </c>
       <c r="C5" t="n">
-        <v>8.541455160744501</v>
+        <v>6.790896159317212</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6494579800364925</v>
+        <v>0.6597321855571497</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06443521204044839</v>
+        <v>0.07802457082418029</v>
       </c>
       <c r="G5" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.26031746031746</v>
+        <v>5.12541993281075</v>
       </c>
       <c r="C6" t="n">
-        <v>6.772727272727272</v>
+        <v>8.488599348534201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6682835820895522</v>
+        <v>0.6322423256759504</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07818654152350624</v>
+        <v>0.0648176291793313</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.08235294117647</v>
+        <v>5.121922626025792</v>
       </c>
       <c r="C7" t="n">
-        <v>9.236883942766296</v>
+        <v>8.354785478547855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6814671814671814</v>
+        <v>0.5572679897993126</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05014175779667882</v>
+        <v>0.07201680672268908</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.036496350364963</v>
+        <v>4.064261555806088</v>
       </c>
       <c r="C8" t="n">
-        <v>8.182130584192439</v>
+        <v>9.308527131782945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5618959963184538</v>
+        <v>0.6874264032447992</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07206733298264072</v>
+        <v>0.04886548439557035</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.394601542416453</v>
+        <v>4.82559456398641</v>
       </c>
       <c r="C9" t="n">
-        <v>10.16111111111111</v>
+        <v>8.628037383177571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5285255618671277</v>
+        <v>0.6164658634538153</v>
       </c>
       <c r="E9" t="n">
         <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06383350821965722</v>
+        <v>0.1065642070178687</v>
       </c>
       <c r="G9" t="n">
-        <v>-2</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.069868995633188</v>
+        <v>7.455665024630542</v>
       </c>
       <c r="C10" t="n">
-        <v>6.625668449197861</v>
+        <v>10.2990990990991</v>
       </c>
       <c r="D10" t="n">
-        <v>0.449452401010952</v>
+        <v>0.5299703264094956</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>0.100865551067513</v>
+        <v>0.06404230317273796</v>
       </c>
       <c r="G10" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.706155632984902</v>
+        <v>5.82172373081464</v>
       </c>
       <c r="C11" t="n">
-        <v>8.592592592592593</v>
+        <v>7.842756183745583</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6158772713732499</v>
+        <v>0.4127312421004252</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1069255288322225</v>
+        <v>0.08110872455763526</v>
       </c>
       <c r="G11" t="n">
-        <v>-21</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.885185185185185</v>
+        <v>5.044979079497908</v>
       </c>
       <c r="C12" t="n">
-        <v>7.888888888888889</v>
+        <v>6.64554794520548</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4104087452471483</v>
+        <v>0.4521527871507626</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08141141460303965</v>
+        <v>0.1002874834144184</v>
       </c>
       <c r="G12" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.744791666666667</v>
+        <v>5.239157372986369</v>
       </c>
       <c r="C13" t="n">
-        <v>9.424063116370808</v>
+        <v>7.208487084870849</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3594822006472492</v>
+        <v>0.3830579474051664</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>0.083663631494376</v>
+        <v>0.08925601507927708</v>
       </c>
       <c r="G13" t="n">
-        <v>-22</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.075291622481442</v>
+        <v>4.744791666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>7.533199195171026</v>
+        <v>9.424063116370808</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4020983286568257</v>
+        <v>0.3594822006472492</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0991466427127779</v>
+        <v>0.083663631494376</v>
       </c>
       <c r="G14" t="n">
-        <v>-4</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.325670498084291</v>
+        <v>5.101123595505618</v>
       </c>
       <c r="C15" t="n">
-        <v>7.180076628352491</v>
+        <v>7.766208251473477</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3580110497237569</v>
+        <v>0.4010644589000592</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09121140142517815</v>
+        <v>0.09988160585512862</v>
       </c>
       <c r="G15" t="n">
-        <v>-21</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.635060639470783</v>
+        <v>5.37816091954023</v>
       </c>
       <c r="C16" t="n">
-        <v>6.754208754208754</v>
+        <v>8.767206477732794</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4150265766412872</v>
+        <v>0.3702587289625722</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09479596515359927</v>
+        <v>0.09855846235985051</v>
       </c>
       <c r="G16" t="n">
-        <v>-3</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.287933094384707</v>
+        <v>4.552238805970149</v>
       </c>
       <c r="C17" t="n">
-        <v>8.978947368421053</v>
+        <v>6.912479740680713</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3707144726511384</v>
+        <v>0.4249416288971295</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09751811992093125</v>
+        <v>0.09199134199134198</v>
       </c>
       <c r="G17" t="n">
-        <v>-22</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.547085201793722</v>
+        <v>4.925790754257908</v>
       </c>
       <c r="C18" t="n">
-        <v>4.892682926829268</v>
+        <v>9.210922787193974</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4462581269885185</v>
+        <v>0.5047737135771854</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1044103313840156</v>
+        <v>0.07781332329695145</v>
       </c>
       <c r="G18" t="n">
-        <v>-35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.855163727959698</v>
+        <v>5.547085201793722</v>
       </c>
       <c r="C19" t="n">
-        <v>9.362204724409448</v>
+        <v>4.892682926829268</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5201980714099557</v>
+        <v>0.4462581269885185</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07701971395438732</v>
+        <v>0.1044103313840156</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="20">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.866158868335147</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>6.656118143459915</v>
+        <v>6.701219512195122</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3391475409836066</v>
+        <v>0.3368120263386756</v>
       </c>
       <c r="E20" t="n">
         <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1173361522198731</v>
+        <v>0.1158613711105489</v>
       </c>
       <c r="G20" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.942776735459662</v>
+        <v>4.934545454545455</v>
       </c>
       <c r="C21" t="n">
-        <v>5.717054263565892</v>
+        <v>5.643527204502814</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3998966007496446</v>
+        <v>0.3868800390911312</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09635288319369148</v>
+        <v>0.09666947216544428</v>
       </c>
       <c r="G21" t="n">
-        <v>-19</v>
+        <v>-22</v>
       </c>
     </row>
   </sheetData>
